--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
     <sheet name="wt_log2_optimized_expression" sheetId="19" r:id="rId9"/>
-    <sheet name="wt_sigmas" sheetId="20" r:id="rId10"/>
-    <sheet name="dcin5_log2_optimized_expression" sheetId="21" r:id="rId11"/>
+    <sheet name="dcin5_log2_optimized_expression" sheetId="20" r:id="rId10"/>
+    <sheet name="wt_sigmas" sheetId="21" r:id="rId11"/>
     <sheet name="dcin5_sigmas" sheetId="22" r:id="rId12"/>
     <sheet name="optimized_production_rates" sheetId="23" r:id="rId13"/>
     <sheet name="network_optimized_weights" sheetId="24" r:id="rId14"/>
+    <sheet name="optimization_diagnostics" sheetId="25" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
   <si>
     <t>CIN5</t>
   </si>
@@ -131,10 +132,37 @@
     <t>makeGraphs</t>
   </si>
   <si>
-    <t>StandardDeviation</t>
-  </si>
-  <si>
     <t>prorate</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>min LSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt SSE</t>
+  </si>
+  <si>
+    <t>dcin5 SSE</t>
   </si>
 </sst>
 </file>
@@ -811,76 +839,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1249,28 +1207,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1278,10 +1245,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1289,10 +1265,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1302,8 +1287,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1311,6 +1305,130 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1337,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1393,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1482,6 +1600,121 @@
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>5.7541935023703743E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0.50509378836733443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>4.6616076618223923E-2</v>
+      </c>
+      <c r="C8">
+        <v>9.3232153236447832E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.32610921173701357</v>
+      </c>
+      <c r="C9">
+        <v>0.65221842347402703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.1924808876002245</v>
+      </c>
+      <c r="C10">
+        <v>0.1924808876002245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4.58609429796486</v>
+      </c>
+      <c r="C11">
+        <v>4.58609429796486</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2706,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2522,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2530,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2538,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2546,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -45,33 +45,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -84,21 +63,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -123,15 +93,6 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
-  </si>
-  <si>
     <t>prorate</t>
   </si>
   <si>
@@ -163,16 +124,50 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,38 +207,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,192 +647,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -839,366 +808,351 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.0301262004443758E-2</v>
       </c>
       <c r="D2">
-        <v>-9.0301262004443758E-2</v>
+        <v>-0.17809435250639069</v>
       </c>
       <c r="E2">
-        <v>-0.17809435250639069</v>
+        <v>-0.2633191863328691</v>
       </c>
       <c r="F2">
-        <v>-0.2633191863328691</v>
+        <v>-0.34592038180390755</v>
       </c>
       <c r="G2">
-        <v>-0.34592038180390755</v>
+        <v>-0.4258465548351722</v>
       </c>
       <c r="H2">
-        <v>-0.4258465548351722</v>
+        <v>-0.50305328505114499</v>
       </c>
       <c r="I2">
-        <v>-0.50305328505114499</v>
+        <v>-0.57750227922993624</v>
       </c>
       <c r="J2">
-        <v>-0.57750227922993624</v>
+        <v>-0.64916398519515395</v>
       </c>
       <c r="K2">
-        <v>-0.64916398519515395</v>
+        <v>-0.71801665996415454</v>
       </c>
       <c r="L2">
-        <v>-0.71801665996415454</v>
+        <v>-0.78404855182131938</v>
       </c>
       <c r="M2">
-        <v>-0.78404855182131938</v>
+        <v>-0.8472567956814715</v>
       </c>
       <c r="N2">
-        <v>-0.8472567956814715</v>
+        <v>-0.90764911605812282</v>
       </c>
       <c r="O2">
-        <v>-0.90764911605812282</v>
+        <v>-0.9652425103039689</v>
       </c>
       <c r="P2">
-        <v>-0.9652425103039689</v>
+        <v>-1.0200644653642452</v>
       </c>
       <c r="Q2">
-        <v>-1.0200644653642452</v>
+        <v>-1.072151431830179</v>
       </c>
       <c r="R2">
-        <v>-1.072151431830179</v>
+        <v>-1.1215495895515937</v>
       </c>
       <c r="S2">
-        <v>-1.1215495895515937</v>
+        <v>-1.1683131549777745</v>
       </c>
       <c r="T2">
-        <v>-1.1683131549777745</v>
+        <v>-1.2125047670279088</v>
       </c>
       <c r="U2">
-        <v>-1.2125047670279088</v>
+        <v>-1.2541936997053389</v>
       </c>
       <c r="V2">
-        <v>-1.2541936997053389</v>
-      </c>
-      <c r="W2">
         <v>-1.2934559146750786</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-3.7774069891593778E-2</v>
       </c>
       <c r="D3">
+        <v>-7.3540344665478652E-2</v>
+      </c>
+      <c r="E3">
+        <v>-0.10736636709460214</v>
+      </c>
+      <c r="F3">
+        <v>-0.13932150464649004</v>
+      </c>
+      <c r="G3">
+        <v>-0.16947610964589513</v>
+      </c>
+      <c r="H3">
+        <v>-0.19790156903873971</v>
+      </c>
+      <c r="I3">
+        <v>-0.22466949341002471</v>
+      </c>
+      <c r="J3">
+        <v>-0.24985173044541253</v>
+      </c>
+      <c r="K3">
+        <v>-0.27351964014931229</v>
+      </c>
+      <c r="L3">
+        <v>-0.29574410203674056</v>
+      </c>
+      <c r="M3">
+        <v>-0.31659488898888177</v>
+      </c>
+      <c r="N3">
+        <v>-0.33614068837409528</v>
+      </c>
+      <c r="O3">
+        <v>-0.35444857893149878</v>
+      </c>
+      <c r="P3">
+        <v>-0.37158407711361563</v>
+      </c>
+      <c r="Q3">
+        <v>-0.38761071452874024</v>
+      </c>
+      <c r="R3">
+        <v>-0.40259011361710589</v>
+      </c>
+      <c r="S3">
+        <v>-0.41658165809036746</v>
+      </c>
+      <c r="T3">
+        <v>-0.42964259688154788</v>
+      </c>
+      <c r="U3">
+        <v>-0.44182779680646822</v>
+      </c>
+      <c r="V3">
+        <v>-0.45318986202840966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>-3.7774069891593778E-2</v>
       </c>
-      <c r="E3">
+      <c r="D5">
         <v>-7.3540344665478652E-2</v>
       </c>
-      <c r="F3">
+      <c r="E5">
         <v>-0.10736636709460214</v>
       </c>
-      <c r="G3">
+      <c r="F5">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="H3">
+      <c r="G5">
         <v>-0.16947610964589513</v>
       </c>
-      <c r="I3">
+      <c r="H5">
         <v>-0.19790156903873971</v>
       </c>
-      <c r="J3">
+      <c r="I5">
         <v>-0.22466949341002471</v>
       </c>
-      <c r="K3">
+      <c r="J5">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="L3">
+      <c r="K5">
         <v>-0.27351964014931229</v>
       </c>
-      <c r="M3">
+      <c r="L5">
         <v>-0.29574410203674056</v>
       </c>
-      <c r="N3">
+      <c r="M5">
         <v>-0.31659488898888177</v>
       </c>
-      <c r="O3">
+      <c r="N5">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="P3">
+      <c r="O5">
         <v>-0.35444857893149878</v>
       </c>
-      <c r="Q3">
+      <c r="P5">
         <v>-0.37158407711361563</v>
       </c>
-      <c r="R3">
+      <c r="Q5">
         <v>-0.38761071452874024</v>
       </c>
-      <c r="S3">
+      <c r="R5">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="T3">
+      <c r="S5">
         <v>-0.41658165809036746</v>
       </c>
-      <c r="U3">
+      <c r="T5">
         <v>-0.42964259688154788</v>
       </c>
-      <c r="V3">
+      <c r="U5">
         <v>-0.44182779680646822</v>
       </c>
-      <c r="W3">
-        <v>-0.45318986202840966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-3.7774069891593778E-2</v>
-      </c>
-      <c r="E5">
-        <v>-7.3540344665478652E-2</v>
-      </c>
-      <c r="F5">
-        <v>-0.10736636709460214</v>
-      </c>
-      <c r="G5">
-        <v>-0.13932150464649004</v>
-      </c>
-      <c r="H5">
-        <v>-0.16947610964589513</v>
-      </c>
-      <c r="I5">
-        <v>-0.19790156903873971</v>
-      </c>
-      <c r="J5">
-        <v>-0.22466949341002471</v>
-      </c>
-      <c r="K5">
-        <v>-0.24985173044541253</v>
-      </c>
-      <c r="L5">
-        <v>-0.27351964014931229</v>
-      </c>
-      <c r="M5">
-        <v>-0.29574410203674056</v>
-      </c>
-      <c r="N5">
-        <v>-0.31659488898888177</v>
-      </c>
-      <c r="O5">
-        <v>-0.33614068837409528</v>
-      </c>
-      <c r="P5">
-        <v>-0.35444857893149878</v>
-      </c>
-      <c r="Q5">
-        <v>-0.37158407711361563</v>
-      </c>
-      <c r="R5">
-        <v>-0.38761071452874024</v>
-      </c>
-      <c r="S5">
-        <v>-0.40259011361710589</v>
-      </c>
-      <c r="T5">
-        <v>-0.41658165809036746</v>
-      </c>
-      <c r="U5">
-        <v>-0.42964259688154788</v>
-      </c>
       <c r="V5">
-        <v>-0.44182779680646822</v>
-      </c>
-      <c r="W5">
         <v>-0.45318986202840966</v>
       </c>
     </row>
@@ -1209,63 +1163,57 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1273,15 +1221,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1293,16 +1238,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1311,9 +1253,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1324,63 +1263,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1388,15 +1321,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1408,16 +1338,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1426,9 +1353,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1439,66 +1363,51 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -1511,21 +1420,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
+      <c r="A1" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1536,7 +1445,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1553,7 +1462,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1611,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1619,15 +1528,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>5.7541935023703743E-2</v>
@@ -1635,7 +1544,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0.50509378836733443</v>
@@ -1643,7 +1552,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1651,7 +1560,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1659,23 +1568,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>4.6616076618223923E-2</v>
@@ -1686,7 +1595,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.32610921173701357</v>
@@ -1724,159 +1633,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1888,20 +1764,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -1910,7 +1786,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -1919,16 +1795,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -1936,17 +1812,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1955,7 +1828,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1964,7 +1837,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1973,7 +1846,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1981,16 +1854,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1999,7 +1869,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -2008,7 +1878,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -2017,7 +1887,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -2025,16 +1895,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -2043,7 +1910,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -2052,7 +1919,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -2061,7 +1928,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -2069,16 +1936,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -2087,7 +1951,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -2096,7 +1960,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -2105,7 +1969,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -2113,40 +1977,37 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2155,285 +2016,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2443,9 +2289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2470,14 +2314,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2488,7 +2332,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2505,7 +2349,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2566,9 +2410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2592,14 +2434,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2627,7 +2469,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2644,7 +2486,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2694,7 +2536,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2706,7 +2548,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A8" sqref="A8:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2716,22 +2558,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2752,7 +2594,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2760,7 +2602,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2768,7 +2610,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2776,57 +2618,57 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -2840,21 +2682,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -2862,10 +2704,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -2873,8 +2715,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
+      <c r="A17" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2952,20 +2794,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2973,7 +2818,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3002,373 +2847,358 @@
       <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.0301262004443758E-2</v>
       </c>
       <c r="D2">
-        <v>-9.0301262004443758E-2</v>
+        <v>-0.17809435250639069</v>
       </c>
       <c r="E2">
-        <v>-0.17809435250639069</v>
+        <v>-0.2633191863328691</v>
       </c>
       <c r="F2">
-        <v>-0.2633191863328691</v>
+        <v>-0.34592038180390755</v>
       </c>
       <c r="G2">
-        <v>-0.34592038180390755</v>
+        <v>-0.4258465548351722</v>
       </c>
       <c r="H2">
-        <v>-0.4258465548351722</v>
+        <v>-0.50305328505114499</v>
       </c>
       <c r="I2">
-        <v>-0.50305328505114499</v>
+        <v>-0.57750227922993624</v>
       </c>
       <c r="J2">
-        <v>-0.57750227922993624</v>
+        <v>-0.64916398519515395</v>
       </c>
       <c r="K2">
-        <v>-0.64916398519515395</v>
+        <v>-0.71801665996415454</v>
       </c>
       <c r="L2">
-        <v>-0.71801665996415454</v>
+        <v>-0.78404855182131938</v>
       </c>
       <c r="M2">
-        <v>-0.78404855182131938</v>
+        <v>-0.8472567956814715</v>
       </c>
       <c r="N2">
-        <v>-0.8472567956814715</v>
+        <v>-0.90764911605812282</v>
       </c>
       <c r="O2">
-        <v>-0.90764911605812282</v>
+        <v>-0.9652425103039689</v>
       </c>
       <c r="P2">
-        <v>-0.9652425103039689</v>
+        <v>-1.0200644653642452</v>
       </c>
       <c r="Q2">
-        <v>-1.0200644653642452</v>
+        <v>-1.072151431830179</v>
       </c>
       <c r="R2">
-        <v>-1.072151431830179</v>
+        <v>-1.1215495895515937</v>
       </c>
       <c r="S2">
-        <v>-1.1215495895515937</v>
+        <v>-1.1683131549777745</v>
       </c>
       <c r="T2">
-        <v>-1.1683131549777745</v>
+        <v>-1.2125047670279088</v>
       </c>
       <c r="U2">
-        <v>-1.2125047670279088</v>
+        <v>-1.2541936997053389</v>
       </c>
       <c r="V2">
-        <v>-1.2541936997053389</v>
-      </c>
-      <c r="W2">
         <v>-1.2934559146750786</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-3.7774069891593778E-2</v>
       </c>
       <c r="D3">
-        <v>-3.7774069891593778E-2</v>
+        <v>-7.3540344665478652E-2</v>
       </c>
       <c r="E3">
-        <v>-7.3540344665478652E-2</v>
+        <v>-0.10736636709460214</v>
       </c>
       <c r="F3">
-        <v>-0.10736636709460214</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="G3">
-        <v>-0.13932150464649004</v>
+        <v>-0.16947610964589513</v>
       </c>
       <c r="H3">
-        <v>-0.16947610964589513</v>
+        <v>-0.19790156903873971</v>
       </c>
       <c r="I3">
-        <v>-0.19790156903873971</v>
+        <v>-0.22466949341002471</v>
       </c>
       <c r="J3">
-        <v>-0.22466949341002471</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="K3">
-        <v>-0.24985173044541253</v>
+        <v>-0.27351964014931229</v>
       </c>
       <c r="L3">
-        <v>-0.27351964014931229</v>
+        <v>-0.29574410203674056</v>
       </c>
       <c r="M3">
-        <v>-0.29574410203674056</v>
+        <v>-0.31659488898888177</v>
       </c>
       <c r="N3">
-        <v>-0.31659488898888177</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="O3">
-        <v>-0.33614068837409528</v>
+        <v>-0.35444857893149878</v>
       </c>
       <c r="P3">
-        <v>-0.35444857893149878</v>
+        <v>-0.37158407711361563</v>
       </c>
       <c r="Q3">
-        <v>-0.37158407711361563</v>
+        <v>-0.38761071452874024</v>
       </c>
       <c r="R3">
-        <v>-0.38761071452874024</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="S3">
-        <v>-0.40259011361710589</v>
+        <v>-0.41658165809036746</v>
       </c>
       <c r="T3">
-        <v>-0.41658165809036746</v>
+        <v>-0.42964259688154788</v>
       </c>
       <c r="U3">
-        <v>-0.42964259688154788</v>
+        <v>-0.44182779680646822</v>
       </c>
       <c r="V3">
-        <v>-0.44182779680646822</v>
-      </c>
-      <c r="W3">
         <v>-0.45318986202840966</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.10178834794248137</v>
       </c>
       <c r="D4">
-        <v>0.10178834794248137</v>
+        <v>0.18952911528280814</v>
       </c>
       <c r="E4">
-        <v>0.18952911528280814</v>
+        <v>0.26578966301165707</v>
       </c>
       <c r="F4">
-        <v>0.26578966301165707</v>
+        <v>0.33252248692158448</v>
       </c>
       <c r="G4">
-        <v>0.33252248692158448</v>
+        <v>0.39124623036085737</v>
       </c>
       <c r="H4">
-        <v>0.39124623036085737</v>
+        <v>0.44316638589380142</v>
       </c>
       <c r="I4">
-        <v>0.44316638589380142</v>
+        <v>0.48925474984476847</v>
       </c>
       <c r="J4">
-        <v>0.48925474984476847</v>
+        <v>0.53030673851808152</v>
       </c>
       <c r="K4">
-        <v>0.53030673851808152</v>
+        <v>0.56698053363988532</v>
       </c>
       <c r="L4">
-        <v>0.56698053363988532</v>
+        <v>0.59982727513679446</v>
       </c>
       <c r="M4">
-        <v>0.59982727513679446</v>
+        <v>0.62931206578714249</v>
       </c>
       <c r="N4">
-        <v>0.62931206578714249</v>
+        <v>0.65583120339909451</v>
       </c>
       <c r="O4">
-        <v>0.65583120339909451</v>
+        <v>0.67972422062219295</v>
       </c>
       <c r="P4">
-        <v>0.67972422062219295</v>
+        <v>0.70128436798371607</v>
       </c>
       <c r="Q4">
-        <v>0.70128436798371607</v>
+        <v>0.72076588787669715</v>
       </c>
       <c r="R4">
-        <v>0.72076588787669715</v>
+        <v>0.73839073112065612</v>
       </c>
       <c r="S4">
-        <v>0.73839073112065612</v>
+        <v>0.75435314466260328</v>
       </c>
       <c r="T4">
-        <v>0.75435314466260328</v>
+        <v>0.76882416267997822</v>
       </c>
       <c r="U4">
-        <v>0.76882416267997822</v>
+        <v>0.78195460576113962</v>
       </c>
       <c r="V4">
-        <v>0.78195460576113962</v>
-      </c>
-      <c r="W4">
         <v>0.79387817708967523</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.6001145319862464E-2</v>
       </c>
       <c r="D5">
-        <v>-1.6001145319862464E-2</v>
+        <v>-2.9792748963827793E-2</v>
       </c>
       <c r="E5">
-        <v>-2.9792748963827793E-2</v>
+        <v>-4.1630801220995897E-2</v>
       </c>
       <c r="F5">
-        <v>-4.1630801220995897E-2</v>
+        <v>-5.1748249480410763E-2</v>
       </c>
       <c r="G5">
-        <v>-5.1748249480410763E-2</v>
+        <v>-6.0354760450906438E-2</v>
       </c>
       <c r="H5">
-        <v>-6.0354760450906438E-2</v>
+        <v>-6.7638996559051312E-2</v>
       </c>
       <c r="I5">
-        <v>-6.7638996559051312E-2</v>
+        <v>-7.3769075895912362E-2</v>
       </c>
       <c r="J5">
-        <v>-7.3769075895912362E-2</v>
+        <v>-7.889495730629964E-2</v>
       </c>
       <c r="K5">
-        <v>-7.889495730629964E-2</v>
+        <v>-8.3149251817773315E-2</v>
       </c>
       <c r="L5">
-        <v>-8.3149251817773315E-2</v>
+        <v>-8.664945283746453E-2</v>
       </c>
       <c r="M5">
-        <v>-8.664945283746453E-2</v>
+        <v>-8.9498837033525014E-2</v>
       </c>
       <c r="N5">
-        <v>-8.9498837033525014E-2</v>
+        <v>-9.178841851397157E-2</v>
       </c>
       <c r="O5">
-        <v>-9.178841851397157E-2</v>
+        <v>-9.3597802864127694E-2</v>
       </c>
       <c r="P5">
-        <v>-9.3597802864127694E-2</v>
+        <v>-9.4996830788517339E-2</v>
       </c>
       <c r="Q5">
-        <v>-9.4996830788517339E-2</v>
+        <v>-9.6046325579478481E-2</v>
       </c>
       <c r="R5">
-        <v>-9.6046325579478481E-2</v>
+        <v>-9.6799438472884011E-2</v>
       </c>
       <c r="S5">
-        <v>-9.6799438472884011E-2</v>
+        <v>-9.7302272652367627E-2</v>
       </c>
       <c r="T5">
-        <v>-9.7302272652367627E-2</v>
+        <v>-9.7594964092813041E-2</v>
       </c>
       <c r="U5">
-        <v>-9.7594964092813041E-2</v>
+        <v>-9.7712186923713445E-2</v>
       </c>
       <c r="V5">
-        <v>-9.7712186923713445E-2</v>
-      </c>
-      <c r="W5">
         <v>-9.7684001772766232E-2</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>dcin5</t>
-  </si>
-  <si>
-    <t>prorate</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -661,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -818,7 +815,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1173,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1273,7 +1270,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1365,18 +1362,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1428,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1528,15 +1525,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>5.7541935023703743E-2</v>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0.50509378836733443</v>
@@ -1552,7 +1549,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1560,7 +1557,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1568,18 +1565,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1648,10 +1645,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1774,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2026,7 +2023,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2315,7 +2312,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2435,7 +2432,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2634,7 +2631,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2642,7 +2639,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2666,7 +2663,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2716,7 +2713,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2802,10 +2799,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2864,7 +2861,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2544,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2623,10 +2626,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -1420,15 +1420,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2315,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2435,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2547,7 +2545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2626,7 +2624,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2634,7 +2632,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2642,7 +2640,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2666,7 +2664,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2716,7 +2714,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2794,18 +2792,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -147,10 +147,13 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -172,6 +175,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -181,6 +185,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1426,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2313,7 +2318,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2433,7 +2438,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2543,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2623,16 +2628,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>38</v>
+      <c r="A8" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>33</v>
+    <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2640,143 +2645,151 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>
@@ -2792,7 +2805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -117,12 +117,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>wt SSE</t>
-  </si>
-  <si>
-    <t>dcin5 SSE</t>
-  </si>
-  <si>
     <t>production_rate</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>L_curve</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
   </si>
 </sst>
 </file>
@@ -666,10 +666,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -823,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1178,7 +1178,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1278,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1378,10 +1378,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1579,10 +1579,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1651,10 +1651,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1777,7 +1777,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2029,7 +2029,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2318,7 +2318,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2438,7 +2438,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2550,7 +2550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2813,10 +2813,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2875,7 +2875,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -70,9 +75,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -325,6 +327,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -666,10 +671,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -823,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1178,7 +1183,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1278,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1378,10 +1383,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1431,7 +1436,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1523,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1531,15 +1536,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>5.7541935023703743E-2</v>
@@ -1547,7 +1552,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0.50509378836733443</v>
@@ -1555,7 +1560,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1563,7 +1568,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1571,18 +1576,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1651,10 +1656,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1777,7 +1782,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2029,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2318,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2438,7 +2443,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2548,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2559,27 +2564,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2587,7 +2580,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2596,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2611,7 +2604,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2619,7 +2612,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2627,57 +2620,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2692,20 +2685,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2716,80 +2709,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>33</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2813,10 +2795,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2875,7 +2857,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_forward_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="15278" tabRatio="644" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -26,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -161,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -237,8 +242,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,20 +647,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -663,7 +668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -671,7 +676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -679,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +693,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -697,54 +702,54 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="2"/>
     </row>
   </sheetData>
@@ -761,19 +766,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -841,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -849,67 +854,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-9.0301262004443758E-2</v>
+        <v>-9.03012620044438E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.17809435250639069</v>
+        <v>-0.178094352506391</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.2633191863328691</v>
+        <v>-0.26331918633286899</v>
       </c>
       <c r="F2" s="1">
-        <v>-0.34592038180390755</v>
+        <v>-0.34592038180390799</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.4258465548351722</v>
+        <v>-0.42584655483517198</v>
       </c>
       <c r="H2" s="1">
         <v>-0.50305328505114499</v>
       </c>
       <c r="I2" s="1">
-        <v>-0.57750227922993624</v>
+        <v>-0.57750227922993602</v>
       </c>
       <c r="J2" s="1">
         <v>-0.64916398519515395</v>
       </c>
       <c r="K2" s="1">
-        <v>-0.71801665996415454</v>
+        <v>-0.71801665996415498</v>
       </c>
       <c r="L2" s="1">
-        <v>-0.78404855182131938</v>
+        <v>-0.78404855182131905</v>
       </c>
       <c r="M2" s="1">
-        <v>-0.8472567956814715</v>
+        <v>-0.84725679568147105</v>
       </c>
       <c r="N2" s="1">
-        <v>-0.90764911605812282</v>
+        <v>-0.90764911605812304</v>
       </c>
       <c r="O2" s="1">
-        <v>-0.9652425103039689</v>
+        <v>-0.96524251030396901</v>
       </c>
       <c r="P2" s="1">
-        <v>-1.0200644653642452</v>
+        <v>-1.0200644653642501</v>
       </c>
       <c r="Q2" s="1">
-        <v>-1.072151431830179</v>
+        <v>-1.0721514318301799</v>
       </c>
       <c r="R2" s="1">
-        <v>-1.1215495895515937</v>
+        <v>-1.1215495895515899</v>
       </c>
       <c r="S2" s="1">
-        <v>-1.1683131549777745</v>
+        <v>-1.1683131549777701</v>
       </c>
       <c r="T2" s="1">
-        <v>-1.2125047670279088</v>
+        <v>-1.2125047670279101</v>
       </c>
       <c r="U2" s="1">
-        <v>-1.2541936997053389</v>
+        <v>-1.25419369970534</v>
       </c>
       <c r="V2" s="1">
-        <v>-1.2934559146750786</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.2934559146750799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -917,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>-3.7774069891593778E-2</v>
+        <v>-3.7774069891593799E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>-7.3540344665478652E-2</v>
+        <v>-7.3540344665478694E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.10736636709460214</v>
+        <v>-0.107366367094602</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.16947610964589513</v>
+        <v>-0.16947610964589499</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.19790156903873971</v>
+        <v>-0.19790156903874001</v>
       </c>
       <c r="I3" s="1">
-        <v>-0.22466949341002471</v>
+        <v>-0.22466949341002501</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.27351964014931229</v>
+        <v>-0.27351964014931202</v>
       </c>
       <c r="L3" s="1">
-        <v>-0.29574410203674056</v>
+        <v>-0.29574410203674101</v>
       </c>
       <c r="M3" s="1">
-        <v>-0.31659488898888177</v>
+        <v>-0.316594888988882</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="O3" s="1">
-        <v>-0.35444857893149878</v>
+        <v>-0.354448578931499</v>
       </c>
       <c r="P3" s="1">
-        <v>-0.37158407711361563</v>
+        <v>-0.37158407711361602</v>
       </c>
       <c r="Q3" s="1">
-        <v>-0.38761071452874024</v>
+        <v>-0.38761071452874002</v>
       </c>
       <c r="R3" s="1">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="S3" s="1">
-        <v>-0.41658165809036746</v>
+        <v>-0.41658165809036701</v>
       </c>
       <c r="T3" s="1">
-        <v>-0.42964259688154788</v>
+        <v>-0.42964259688154799</v>
       </c>
       <c r="U3" s="1">
-        <v>-0.44182779680646822</v>
+        <v>-0.441827796806468</v>
       </c>
       <c r="V3" s="1">
-        <v>-0.45318986202840966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.45318986202841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1053,64 +1058,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-3.7774069891593778E-2</v>
+        <v>-3.7774069891593799E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>-7.3540344665478652E-2</v>
+        <v>-7.3540344665478694E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.10736636709460214</v>
+        <v>-0.107366367094602</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.16947610964589513</v>
+        <v>-0.16947610964589499</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.19790156903873971</v>
+        <v>-0.19790156903874001</v>
       </c>
       <c r="I5" s="1">
-        <v>-0.22466949341002471</v>
+        <v>-0.22466949341002501</v>
       </c>
       <c r="J5" s="1">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="K5" s="1">
-        <v>-0.27351964014931229</v>
+        <v>-0.27351964014931202</v>
       </c>
       <c r="L5" s="1">
-        <v>-0.29574410203674056</v>
+        <v>-0.29574410203674101</v>
       </c>
       <c r="M5" s="1">
-        <v>-0.31659488898888177</v>
+        <v>-0.316594888988882</v>
       </c>
       <c r="N5" s="1">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="O5" s="1">
-        <v>-0.35444857893149878</v>
+        <v>-0.354448578931499</v>
       </c>
       <c r="P5" s="1">
-        <v>-0.37158407711361563</v>
+        <v>-0.37158407711361602</v>
       </c>
       <c r="Q5" s="1">
-        <v>-0.38761071452874024</v>
+        <v>-0.38761071452874002</v>
       </c>
       <c r="R5" s="1">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="S5" s="1">
-        <v>-0.41658165809036746</v>
+        <v>-0.41658165809036701</v>
       </c>
       <c r="T5" s="1">
-        <v>-0.42964259688154788</v>
+        <v>-0.42964259688154799</v>
       </c>
       <c r="U5" s="1">
-        <v>-0.44182779680646822</v>
+        <v>-0.441827796806468</v>
       </c>
       <c r="V5" s="1">
-        <v>-0.45318986202840966</v>
+        <v>-0.45318986202841</v>
       </c>
     </row>
   </sheetData>
@@ -1124,19 +1129,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1153,15 +1158,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="1">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1170,12 +1175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1187,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1232,19 +1237,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1261,15 +1266,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="1">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1278,12 +1283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1295,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1340,19 +1345,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1403,19 +1408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1449,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1511,19 +1516,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1531,31 +1536,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
-        <v>5.7541935023703743E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5.7541935023703701E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1">
-        <v>0.50509378836733443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.50509378836733398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.2133358649639599E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1563,12 +1568,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1579,40 +1584,40 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>4.6616076618223923E-2</v>
+        <v>4.6616076618223902E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>9.3232153236447832E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>9.3232153236447804E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>0.32610921173701357</v>
+        <v>0.32610921173701402</v>
       </c>
       <c r="C9" s="1">
         <v>0.65221842347402703</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>0.1924808876002245</v>
+        <v>0.192480887600224</v>
       </c>
       <c r="C10" s="1">
-        <v>0.1924808876002245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.192480887600224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1634,21 +1639,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1688,43 +1693,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -1741,19 +1746,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="1"/>
+    <col min="1" max="16384" width="10.5859375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1776,10 +1781,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1795,195 +1800,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -2001,19 +2006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2036,10 +2041,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -2055,89 +2060,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,92 +2183,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -2280,34 +2285,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5859375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2406,34 +2411,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5859375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2467,7 +2472,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2549,20 +2554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21.1171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2708,7 +2713,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="1">
         <v>0.4</v>
@@ -2717,10 +2722,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="1">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="1">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="1">
         <v>0.8</v>
@@ -2735,13 +2740,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="1">
         <v>1.3</v>
       </c>
       <c r="P16" s="1">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="1">
         <v>1.5</v>
@@ -2750,13 +2755,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="1">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="1">
         <v>1.8</v>
       </c>
       <c r="U16" s="1">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="1">
         <v>2</v>
@@ -2776,19 +2781,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2796,7 +2801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2828,10 +2833,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -2846,19 +2851,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2926,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2934,67 +2939,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-9.0301262004443758E-2</v>
+        <v>-9.03012620044438E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.17809435250639069</v>
+        <v>-0.178094352506391</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.2633191863328691</v>
+        <v>-0.26331918633286899</v>
       </c>
       <c r="F2" s="1">
-        <v>-0.34592038180390755</v>
+        <v>-0.34592038180390799</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.4258465548351722</v>
+        <v>-0.42584655483517198</v>
       </c>
       <c r="H2" s="1">
         <v>-0.50305328505114499</v>
       </c>
       <c r="I2" s="1">
-        <v>-0.57750227922993624</v>
+        <v>-0.57750227922993602</v>
       </c>
       <c r="J2" s="1">
         <v>-0.64916398519515395</v>
       </c>
       <c r="K2" s="1">
-        <v>-0.71801665996415454</v>
+        <v>-0.71801665996415498</v>
       </c>
       <c r="L2" s="1">
-        <v>-0.78404855182131938</v>
+        <v>-0.78404855182131905</v>
       </c>
       <c r="M2" s="1">
-        <v>-0.8472567956814715</v>
+        <v>-0.84725679568147105</v>
       </c>
       <c r="N2" s="1">
-        <v>-0.90764911605812282</v>
+        <v>-0.90764911605812304</v>
       </c>
       <c r="O2" s="1">
-        <v>-0.9652425103039689</v>
+        <v>-0.96524251030396901</v>
       </c>
       <c r="P2" s="1">
-        <v>-1.0200644653642452</v>
+        <v>-1.0200644653642501</v>
       </c>
       <c r="Q2" s="1">
-        <v>-1.072151431830179</v>
+        <v>-1.0721514318301799</v>
       </c>
       <c r="R2" s="1">
-        <v>-1.1215495895515937</v>
+        <v>-1.1215495895515899</v>
       </c>
       <c r="S2" s="1">
-        <v>-1.1683131549777745</v>
+        <v>-1.1683131549777701</v>
       </c>
       <c r="T2" s="1">
-        <v>-1.2125047670279088</v>
+        <v>-1.2125047670279101</v>
       </c>
       <c r="U2" s="1">
-        <v>-1.2541936997053389</v>
+        <v>-1.25419369970534</v>
       </c>
       <c r="V2" s="1">
-        <v>-1.2934559146750786</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.2934559146750799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3002,67 +3007,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>-3.7774069891593778E-2</v>
+        <v>-3.7774069891593799E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>-7.3540344665478652E-2</v>
+        <v>-7.3540344665478694E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.10736636709460214</v>
+        <v>-0.107366367094602</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.16947610964589513</v>
+        <v>-0.16947610964589499</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.19790156903873971</v>
+        <v>-0.19790156903874001</v>
       </c>
       <c r="I3" s="1">
-        <v>-0.22466949341002471</v>
+        <v>-0.22466949341002501</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.27351964014931229</v>
+        <v>-0.27351964014931202</v>
       </c>
       <c r="L3" s="1">
-        <v>-0.29574410203674056</v>
+        <v>-0.29574410203674101</v>
       </c>
       <c r="M3" s="1">
-        <v>-0.31659488898888177</v>
+        <v>-0.316594888988882</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="O3" s="1">
-        <v>-0.35444857893149878</v>
+        <v>-0.354448578931499</v>
       </c>
       <c r="P3" s="1">
-        <v>-0.37158407711361563</v>
+        <v>-0.37158407711361602</v>
       </c>
       <c r="Q3" s="1">
-        <v>-0.38761071452874024</v>
+        <v>-0.38761071452874002</v>
       </c>
       <c r="R3" s="1">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="S3" s="1">
-        <v>-0.41658165809036746</v>
+        <v>-0.41658165809036701</v>
       </c>
       <c r="T3" s="1">
-        <v>-0.42964259688154788</v>
+        <v>-0.42964259688154799</v>
       </c>
       <c r="U3" s="1">
-        <v>-0.44182779680646822</v>
+        <v>-0.441827796806468</v>
       </c>
       <c r="V3" s="1">
-        <v>-0.45318986202840966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.45318986202841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3070,67 +3075,67 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0.10178834794248137</v>
+        <v>0.101788347942481</v>
       </c>
       <c r="D4" s="1">
-        <v>0.18952911528280814</v>
+        <v>0.189529115282808</v>
       </c>
       <c r="E4" s="1">
-        <v>0.26578966301165707</v>
+        <v>0.26578966301165702</v>
       </c>
       <c r="F4" s="1">
-        <v>0.33252248692158448</v>
+        <v>0.33252248692158398</v>
       </c>
       <c r="G4" s="1">
-        <v>0.39124623036085737</v>
+        <v>0.39124623036085698</v>
       </c>
       <c r="H4" s="1">
-        <v>0.44316638589380142</v>
+        <v>0.44316638589380097</v>
       </c>
       <c r="I4" s="1">
-        <v>0.48925474984476847</v>
+        <v>0.48925474984476802</v>
       </c>
       <c r="J4" s="1">
-        <v>0.53030673851808152</v>
+        <v>0.53030673851808197</v>
       </c>
       <c r="K4" s="1">
-        <v>0.56698053363988532</v>
+        <v>0.56698053363988499</v>
       </c>
       <c r="L4" s="1">
-        <v>0.59982727513679446</v>
+        <v>0.59982727513679401</v>
       </c>
       <c r="M4" s="1">
-        <v>0.62931206578714249</v>
+        <v>0.62931206578714205</v>
       </c>
       <c r="N4" s="1">
-        <v>0.65583120339909451</v>
+        <v>0.65583120339909495</v>
       </c>
       <c r="O4" s="1">
         <v>0.67972422062219295</v>
       </c>
       <c r="P4" s="1">
-        <v>0.70128436798371607</v>
+        <v>0.70128436798371596</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.72076588787669715</v>
+        <v>0.72076588787669704</v>
       </c>
       <c r="R4" s="1">
-        <v>0.73839073112065612</v>
+        <v>0.73839073112065601</v>
       </c>
       <c r="S4" s="1">
-        <v>0.75435314466260328</v>
+        <v>0.75435314466260295</v>
       </c>
       <c r="T4" s="1">
-        <v>0.76882416267997822</v>
+        <v>0.768824162679978</v>
       </c>
       <c r="U4" s="1">
-        <v>0.78195460576113962</v>
+        <v>0.78195460576113995</v>
       </c>
       <c r="V4" s="1">
-        <v>0.79387817708967523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.79387817708967501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3138,64 +3143,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-1.6001145319862464E-2</v>
+        <v>-1.6001145319862499E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>-2.9792748963827793E-2</v>
+        <v>-2.97927489638278E-2</v>
       </c>
       <c r="E5" s="1">
         <v>-4.1630801220995897E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>-5.1748249480410763E-2</v>
+        <v>-5.1748249480410798E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>-6.0354760450906438E-2</v>
+        <v>-6.0354760450906403E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>-6.7638996559051312E-2</v>
+        <v>-6.7638996559051298E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>-7.3769075895912362E-2</v>
+        <v>-7.3769075895912403E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>-7.889495730629964E-2</v>
+        <v>-7.8894957306299598E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>-8.3149251817773315E-2</v>
+        <v>-8.3149251817773301E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>-8.664945283746453E-2</v>
+        <v>-8.6649452837464502E-2</v>
       </c>
       <c r="M5" s="1">
-        <v>-8.9498837033525014E-2</v>
+        <v>-8.9498837033525E-2</v>
       </c>
       <c r="N5" s="1">
-        <v>-9.178841851397157E-2</v>
+        <v>-9.1788418513971598E-2</v>
       </c>
       <c r="O5" s="1">
         <v>-9.3597802864127694E-2</v>
       </c>
       <c r="P5" s="1">
-        <v>-9.4996830788517339E-2</v>
+        <v>-9.4996830788517297E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>-9.6046325579478481E-2</v>
+        <v>-9.6046325579478495E-2</v>
       </c>
       <c r="R5" s="1">
-        <v>-9.6799438472884011E-2</v>
+        <v>-9.6799438472883997E-2</v>
       </c>
       <c r="S5" s="1">
-        <v>-9.7302272652367627E-2</v>
+        <v>-9.73022726523676E-2</v>
       </c>
       <c r="T5" s="1">
-        <v>-9.7594964092813041E-2</v>
+        <v>-9.7594964092813E-2</v>
       </c>
       <c r="U5" s="1">
-        <v>-9.7712186923713445E-2</v>
+        <v>-9.7712186923713404E-2</v>
       </c>
       <c r="V5" s="1">
-        <v>-9.7684001772766232E-2</v>
+        <v>-9.7684001772766205E-2</v>
       </c>
     </row>
   </sheetData>
